--- a/Journée d'activité/Constantin.xlsx
+++ b/Journée d'activité/Constantin.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446944D-A202-47F5-A1AD-1A38AACB60F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ACTIVITÉ</t>
+  </si>
+  <si>
+    <t>Création du GitHub / Journal d'activité / reglage problème gitHub</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +44,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +72,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +515,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43756</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journée d'activité/Constantin.xlsx
+++ b/Journée d'activité/Constantin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446944D-A202-47F5-A1AD-1A38AACB60F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F0C74-78C5-460A-87DE-58022A916860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DATE</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Création du GitHub / Journal d'activité / reglage problème gitHub</t>
+  </si>
+  <si>
+    <t>Choix du templates / Compréhension du templates / Reflexion sur le templates</t>
   </si>
 </sst>
 </file>
@@ -200,6 +203,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,30 +237,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,7 +522,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,322 +535,326 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>43756</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="13">
+        <v>43777</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:H8"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:H30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:H4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Constantin.xlsx
+++ b/Journée d'activité/Constantin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F0C74-78C5-460A-87DE-58022A916860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728CC80-B1B3-4C70-A10A-1E73758104F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="165" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DATE</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Choix du templates / Compréhension du templates / Reflexion sur le templates</t>
+  </si>
+  <si>
+    <t>Etude de la page Game.html / architecture détaillé du programme</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C7" sqref="C7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,8 +592,12 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="13">
+        <v>43784</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -824,6 +831,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -831,30 +862,6 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Constantin.xlsx
+++ b/Journée d'activité/Constantin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728CC80-B1B3-4C70-A10A-1E73758104F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E17CF-11E6-4884-8C66-53AEC146BC2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5370" yWindow="165" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DATE</t>
   </si>
@@ -28,13 +28,19 @@
     <t>ACTIVITÉ</t>
   </si>
   <si>
-    <t>Création du GitHub / Journal d'activité / reglage problème gitHub</t>
+    <t>Choix du templates / Compréhension du templates /Modification du templates pour son fonctionnement/  Reflexion sur le templates</t>
   </si>
   <si>
-    <t>Choix du templates / Compréhension du templates / Reflexion sur le templates</t>
+    <t>Etude de la page Game.html / Architecture détaillé du programme</t>
   </si>
   <si>
-    <t>Etude de la page Game.html / architecture détaillé du programme</t>
+    <t>Création du GitHub / Journal d'activité / Reglage problème gitHub</t>
+  </si>
+  <si>
+    <t>OBJECTIF</t>
+  </si>
+  <si>
+    <t>Mettre en forme le Git / Gestion de la structurede la page game.html et son css / Modifier la page en game.php / Récupérer les choix à partir des infos serveurs / Passer par URL les points réponses</t>
   </si>
 </sst>
 </file>
@@ -206,40 +212,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H8"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,304 +539,494 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
         <v>43756</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>43777</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>43777</v>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>43784</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>43784</v>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="47">
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:H28"/>
     <mergeCell ref="B29:B30"/>
@@ -862,6 +1058,22 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N4"/>
+    <mergeCell ref="I5:N6"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="I9:N10"/>
+    <mergeCell ref="I11:N12"/>
+    <mergeCell ref="I13:N14"/>
+    <mergeCell ref="I15:N16"/>
+    <mergeCell ref="I17:N18"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="I29:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Constantin.xlsx
+++ b/Journée d'activité/Constantin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E17CF-11E6-4884-8C66-53AEC146BC2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC39D5-7438-467C-B3C4-98126A0D14C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5370" yWindow="165" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,16 @@
     <t>Choix du templates / Compréhension du templates /Modification du templates pour son fonctionnement/  Reflexion sur le templates</t>
   </si>
   <si>
-    <t>Etude de la page Game.html / Architecture détaillé du programme</t>
-  </si>
-  <si>
     <t>Création du GitHub / Journal d'activité / Reglage problème gitHub</t>
   </si>
   <si>
     <t>OBJECTIF</t>
   </si>
   <si>
-    <t>Mettre en forme le Git / Gestion de la structurede la page game.html et son css / Modifier la page en game.php / Récupérer les choix à partir des infos serveurs / Passer par URL les points réponses</t>
+    <t>Etude de la page Game.html / Architecture détaillé du programme / Ajout de la barre son</t>
+  </si>
+  <si>
+    <t>Créer les différents dossiers du Git / Modifier le css pour que la page game.html soit jolie / Modifier la page en game.php / Récupérer dans la bdd le choix des réponses et les afficher les trois bouttons avec le bon texte</t>
   </si>
 </sst>
 </file>
@@ -212,6 +212,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -230,6 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,15 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +531,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="I9" sqref="I9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,513 +544,505 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>43756</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>43777</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>43784</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
-        <v>43756</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
-        <v>43777</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
-        <v>43784</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="7"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="7"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="I29:N30"/>
+    <mergeCell ref="I11:N12"/>
+    <mergeCell ref="I13:N14"/>
+    <mergeCell ref="I15:N16"/>
+    <mergeCell ref="I17:N18"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N4"/>
+    <mergeCell ref="I5:N6"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="I9:N10"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -1058,22 +1050,30 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N4"/>
-    <mergeCell ref="I5:N6"/>
-    <mergeCell ref="I7:N8"/>
-    <mergeCell ref="I9:N10"/>
-    <mergeCell ref="I11:N12"/>
-    <mergeCell ref="I13:N14"/>
-    <mergeCell ref="I15:N16"/>
-    <mergeCell ref="I17:N18"/>
-    <mergeCell ref="I19:N20"/>
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="I29:N30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Constantin.xlsx
+++ b/Journée d'activité/Constantin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC39D5-7438-467C-B3C4-98126A0D14C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DA815-B966-42A2-9032-1CE5BFDB73CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="165" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DATE</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Créer les différents dossiers du Git / Modifier le css pour que la page game.html soit jolie / Modifier la page en game.php / Récupérer dans la bdd le choix des réponses et les afficher les trois bouttons avec le bon texte</t>
+  </si>
+  <si>
+    <t>Mettre en commun les avancées de Paul sur la page question.php /Charger les questions à partir de la base de données</t>
   </si>
 </sst>
 </file>
@@ -212,41 +215,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,505 +547,515 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="11" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>43756</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>43777</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>43784</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="I29:N30"/>
-    <mergeCell ref="I11:N12"/>
-    <mergeCell ref="I13:N14"/>
-    <mergeCell ref="I15:N16"/>
-    <mergeCell ref="I17:N18"/>
-    <mergeCell ref="I19:N20"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N4"/>
-    <mergeCell ref="I5:N6"/>
-    <mergeCell ref="I7:N8"/>
-    <mergeCell ref="I9:N10"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:H14"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C2:H2"/>
@@ -1050,30 +1063,22 @@
     <mergeCell ref="C3:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:H6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N4"/>
+    <mergeCell ref="I5:N6"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="I9:N10"/>
+    <mergeCell ref="I11:N12"/>
+    <mergeCell ref="I13:N14"/>
+    <mergeCell ref="I15:N16"/>
+    <mergeCell ref="I17:N18"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="I29:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
